--- a/data/trans_dic/P24_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con mareos con bastante o mucha frecuencia</t>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,7 +686,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +696,62 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,5</t>
+          <t>2,06; 16,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 16,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,67</t>
+          <t>1,93; 18,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,75</t>
+          <t>1,66; 19,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,67</t>
+          <t>1,23; 11,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 10,27</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 9,2</t>
         </is>
       </c>
     </row>
@@ -806,52 +861,67 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,63</t>
+          <t>1,68; 15,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,72</t>
+          <t>0,0; 11,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 11,07</t>
+          <t>0,0; 6,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 12,31</t>
+          <t>1,62; 16,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 17,59</t>
+          <t>3,04; 21,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,53</t>
+          <t>6,82; 26,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,58</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,56</t>
+          <t>9,26; 32,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,54</t>
+          <t>0,83; 8,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,91</t>
+          <t>1,47; 11,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 18,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 7,58</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 16,27</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,19</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,68</t>
+          <t>0,0; 9,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,3</t>
+          <t>1,56; 14,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,92</t>
+          <t>4,71; 20,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,92</t>
+          <t>0,98; 8,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,3</t>
+          <t>0,9; 8,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,22</t>
+          <t>1,04; 9,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,39</t>
+          <t>2,49; 13,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,34</t>
+          <t>3,92; 18,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,1</t>
+          <t>1,62; 7,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,53</t>
+          <t>0,55; 5,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 6,61</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 10,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 17,28</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,11</t>
+          <t>0,0; 8,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,9</t>
+          <t>3,74; 16,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,4</t>
+          <t>1,32; 12,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>0,0; 5,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,89</t>
+          <t>3,8; 17,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,59</t>
+          <t>2,08; 12,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 10,58</t>
+          <t>3,77; 14,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 14,17</t>
+          <t>2,93; 13,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,95</t>
+          <t>3,0; 13,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,89</t>
+          <t>10,41; 24,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,97</t>
+          <t>1,8; 8,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,29</t>
+          <t>4,58; 12,74</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 10,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 8,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 19,25</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,9</t>
+          <t>0,0; 9,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 25,2</t>
+          <t>5,83; 37,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,34</t>
+          <t>2,92; 15,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,17</t>
+          <t>1,7; 16,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 17,18</t>
+          <t>1,63; 14,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,63</t>
+          <t>3,6; 22,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 23,45</t>
+          <t>1,94; 17,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,98</t>
+          <t>5,45; 24,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 10,63</t>
+          <t>2,16; 17,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 18,38</t>
+          <t>0,7; 6,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 15,11</t>
+          <t>2,19; 10,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 26,96</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 17,0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 13,06</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,03</t>
+          <t>0,0; 15,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 13,74</t>
+          <t>0,0; 16,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 13,05</t>
+          <t>2,41; 18,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,84</t>
+          <t>2,51; 19,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 12,11</t>
+          <t>2,85; 24,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,09; 23,25</t>
+          <t>1,76; 16,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 14,31</t>
+          <t>2,18; 20,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 25,3</t>
+          <t>4,24; 23,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,54</t>
+          <t>5,44; 28,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 16,22</t>
+          <t>12,71; 40,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 10,89</t>
+          <t>1,24; 11,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 18,7</t>
+          <t>2,36; 13,67</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 18,07</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 22,8</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 30,09</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,44</t>
+          <t>0,59; 3,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,98</t>
+          <t>1,46; 4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,41</t>
+          <t>3,76; 11,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,99</t>
+          <t>2,41; 6,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,46</t>
+          <t>3,73; 9,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,07</t>
+          <t>3,52; 8,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,31</t>
+          <t>3,92; 8,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,59</t>
+          <t>5,98; 11,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,56</t>
+          <t>4,5; 10,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,72</t>
+          <t>11,09; 19,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,61</t>
+          <t>2,42; 5,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,22</t>
+          <t>3,13; 6,22</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 9,77</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 7,63</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 13,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7799</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9977</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9653</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7799</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9977</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9653</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2423; 18852</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2314; 22292</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2419; 28264</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2508; 23199</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2572; 23201</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2404; 26792</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9548</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8269</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14539</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19683</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30249</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8269</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14539</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>29231</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9149</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>32750</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2409; 22657</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17828</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15773</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2164; 21943</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5021; 34714</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8647; 33457</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13099</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15038; 52825</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2242; 24078</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4894; 38844</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14645; 48834</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2316; 21276</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15365; 63451</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4999</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2395</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7362</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18382</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7420</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8476</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12226</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23006</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12764</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7420</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10870</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19588</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>41388</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15540</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12097</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2148; 20430</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8497; 37184</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2113; 18144</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2389; 21283</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2180; 20199</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4987; 27018</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9402; 44407</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5761; 27705</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2362; 22071</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3972; 22718</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8905; 35482</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>22981; 72558</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4282</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15950</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8263</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18264</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11263</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17329</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12405</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11941</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36151</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15545</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33279</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>20668</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13939</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>54415</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13072</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6976; 30418</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2122; 20172</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8123</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7521; 34090</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3974; 23556</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8240; 31924</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5406; 24100</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5128; 23542</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22147; 53120</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6403; 29366</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18541; 51594</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>10850; 35791</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6893; 26361</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>37258; 79087</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19701</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10319</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10350</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5486</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10439</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6874</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11055</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10656</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5486</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14651</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>26575</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>21373</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>21005</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14227</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7699; 49074</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3596; 19617</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2627; 25459</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1686; 14497</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4185; 25854</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1748; 15513</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5053; 22538</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2961; 24408</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1688; 14927</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5987; 27395</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>12642; 59927</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12001; 36699</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>8853; 38104</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6177</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6634</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7304</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13486</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11765</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12725</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16791</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>53668</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9401</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17942</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>19358</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>24095</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>67154</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14268</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18489</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2105; 16048</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2266; 17151</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3923; 33608</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1886; 17466</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2993; 28417</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4461; 25110</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6012; 31230</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26128; 84173</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2453; 22644</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5827; 33748</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8975; 34785</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>11480; 45770</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>35870; 103318</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11720</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26340</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>46540</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32004</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62983</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>47545</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61491</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70139</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56140</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>163382</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>59265</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>87831</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>116680</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>88144</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>226365</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4455; 26819</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13002; 44429</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>28709; 87844</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19008; 52298</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38990; 94428</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30542; 72668</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40573; 89515</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>49984; 94621</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>37026; 82430</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>122301; 209874</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>39354; 84210</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>60394; 119744</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>87378; 156313</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>63978; 123096</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>178279; 281385</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>